--- a/Experimental_scripts/Lists/repswitch_V1L4.xlsx
+++ b/Experimental_scripts/Lists/repswitch_V1L4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Experimental_scripts\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793386D4-8ED9-410F-9098-2F94777797BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513ED92-7898-41F0-A8DE-E615F4D9A765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="600" windowWidth="12960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="11" r:id="rId1"/>
@@ -230,208 +230,97 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_8.png</t>
-  </si>
-  <si>
     <t>pierna</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_498.png</t>
   </si>
   <si>
     <t>taza</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_19.png</t>
-  </si>
-  <si>
     <t>pavo</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_319.png</t>
   </si>
   <si>
     <t>vaca</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_169.png</t>
-  </si>
-  <si>
     <t>espalda</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_728.png</t>
   </si>
   <si>
     <t>pulpo</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_142.png</t>
-  </si>
-  <si>
     <t>vaso</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_338.png</t>
   </si>
   <si>
     <t>regalo</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_135.png</t>
-  </si>
-  <si>
     <t>traje</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_48.png</t>
   </si>
   <si>
     <t>bombero</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_687.png</t>
-  </si>
-  <si>
     <t>camisa</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_128.png</t>
   </si>
   <si>
     <t>muñeca</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_719.png</t>
-  </si>
-  <si>
     <t>baño</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_178.png</t>
   </si>
   <si>
     <t>puente</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_16.png</t>
-  </si>
-  <si>
     <t>cazador</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_199.png</t>
   </si>
   <si>
     <t>falda</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_517.png</t>
-  </si>
-  <si>
     <t>cuerda</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_673.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_552.png</t>
   </si>
   <si>
     <t>manzana</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_152.png</t>
-  </si>
-  <si>
     <t>caracol</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_446.png</t>
   </si>
   <si>
     <t>cerdo</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_264.png</t>
-  </si>
-  <si>
     <t>mano</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_30.png</t>
   </si>
   <si>
     <t>granja</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_646.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_175.png</t>
-  </si>
-  <si>
     <t>pintor</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_663.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_35.png</t>
   </si>
   <si>
     <t>oreja</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_576.png</t>
-  </si>
-  <si>
     <t>guante</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_271.png</t>
   </si>
   <si>
     <t>conejo</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_242.png</t>
-  </si>
-  <si>
     <t>cartero</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_610.png</t>
   </si>
   <si>
     <t>miel</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_320.png</t>
-  </si>
-  <si>
     <t>iglesia</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_464.png</t>
   </si>
   <si>
     <t>goma</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_235.png</t>
-  </si>
-  <si>
     <t>aguja</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_340.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_391.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_590.png</t>
   </si>
   <si>
     <t>Extra2</t>
@@ -452,13 +341,124 @@
     <t>Extra5</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_381.png</t>
-  </si>
-  <si>
     <t>fresa</t>
   </si>
   <si>
     <t>trial_no</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_8.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_498.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_19.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_319.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_169.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_728.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_142.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_338.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_135.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_381.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_48.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_687.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_128.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_719.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_178.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_16.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_199.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_517.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_673.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_552.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_152.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_446.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_264.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_30.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_646.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_175.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_663.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_35.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_576.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_271.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_242.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_610.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_320.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_464.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_235.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_340.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_391.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_590.png</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E0E5EA-0B45-4853-90B1-9E78A5B0F15D}">
   <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -1516,7 +1516,7 @@
         <v>60</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>58</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>2</v>
@@ -1786,10 +1786,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>1</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>1</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>2</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>1</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>2</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>2</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>2</v>
@@ -2151,10 +2151,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>1</v>
@@ -2202,10 +2202,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>2</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>2</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>2</v>
@@ -2459,10 +2459,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>2</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>1</v>
@@ -2563,10 +2563,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>2</v>
@@ -2616,10 +2616,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>2</v>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>2</v>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>1</v>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>2</v>
@@ -2822,10 +2822,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>2</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>2</v>
@@ -2926,10 +2926,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>1</v>
@@ -2979,10 +2979,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>2</v>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>2</v>
@@ -3083,10 +3083,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>2</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>56</v>
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M33" s="6">
         <v>0</v>
@@ -3185,10 +3185,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>2</v>
@@ -3238,10 +3238,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>2</v>
@@ -3291,10 +3291,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>1</v>
@@ -3342,10 +3342,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>1</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>1</v>
@@ -3446,10 +3446,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>2</v>
@@ -3497,10 +3497,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>2</v>
@@ -3548,10 +3548,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>2</v>
@@ -3601,10 +3601,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>1</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>1</v>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>1</v>
@@ -3754,10 +3754,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>2</v>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>1</v>
@@ -3858,10 +3858,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>1</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>55</v>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M48" s="11">
         <v>0</v>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>1</v>
@@ -4011,10 +4011,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>1</v>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>2</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>57</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="34" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="M52" s="18">
         <v>0</v>
@@ -4166,10 +4166,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>2</v>
@@ -4217,10 +4217,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>1</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>1</v>
@@ -4319,10 +4319,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>1</v>
@@ -4372,10 +4372,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>2</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>2</v>
@@ -4476,10 +4476,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>2</v>
@@ -4529,10 +4529,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>1</v>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>2</v>
@@ -4631,10 +4631,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>1</v>
@@ -4684,10 +4684,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>1</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>1</v>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>2</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>1</v>
@@ -4892,10 +4892,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>1</v>
@@ -4943,10 +4943,10 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>1</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>2</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>1</v>
@@ -5098,10 +5098,10 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>2</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>2</v>
@@ -5200,10 +5200,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>2</v>
@@ -5251,10 +5251,10 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>1</v>
@@ -5302,10 +5302,10 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>2</v>
@@ -5355,10 +5355,10 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>2</v>
@@ -5406,10 +5406,10 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>2</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="29" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>52</v>
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M78" s="11">
         <v>0</v>
@@ -5510,10 +5510,10 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>1</v>
@@ -5563,10 +5563,10 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="21" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>2</v>
@@ -5614,10 +5614,10 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>2</v>
@@ -5665,10 +5665,10 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>2</v>
@@ -5718,10 +5718,10 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>1</v>
@@ -5769,10 +5769,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>2</v>
@@ -5820,10 +5820,10 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="21" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>1</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="21" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>1</v>
@@ -5924,10 +5924,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>1</v>
@@ -5975,10 +5975,10 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>2</v>
@@ -6026,10 +6026,10 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>1</v>
@@ -6077,10 +6077,10 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="21" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>2</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="21" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>1</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="29" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>53</v>
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M92" s="11">
         <v>0</v>
@@ -6232,10 +6232,10 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>1</v>
@@ -6283,10 +6283,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>1</v>
@@ -6336,10 +6336,10 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>1</v>
@@ -6387,10 +6387,10 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>2</v>
@@ -6440,10 +6440,10 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>1</v>
@@ -6491,10 +6491,10 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="21" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>1</v>
@@ -6544,10 +6544,10 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="21" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>2</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>54</v>
@@ -6628,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M100" s="11">
         <v>0</v>
@@ -6646,10 +6646,10 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>2</v>
@@ -6697,10 +6697,10 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="21" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>2</v>
@@ -6750,10 +6750,10 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="29" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>55</v>
@@ -6834,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M104" s="15">
         <v>0</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="29" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>52</v>
@@ -6885,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M105" s="9">
         <v>0</v>
@@ -6903,10 +6903,10 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="21" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>1</v>
@@ -6954,10 +6954,10 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>1</v>
@@ -7007,10 +7007,10 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>1</v>
@@ -7058,10 +7058,10 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="21" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>2</v>
@@ -7109,10 +7109,10 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="21" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>1</v>
@@ -7162,10 +7162,10 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="21" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>1</v>
@@ -7213,10 +7213,10 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="21" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>2</v>
@@ -7264,10 +7264,10 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>1</v>
@@ -7315,10 +7315,10 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>2</v>
@@ -7366,10 +7366,10 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="21" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>2</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>2</v>
@@ -7470,10 +7470,10 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>1</v>
@@ -7521,10 +7521,10 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="21" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>1</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="21" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>2</v>
@@ -7625,10 +7625,10 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>1</v>
@@ -7678,10 +7678,10 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="21" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>1</v>
@@ -7729,10 +7729,10 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>2</v>
@@ -7782,10 +7782,10 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>2</v>
@@ -7833,10 +7833,10 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>1</v>
@@ -7884,10 +7884,10 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>1</v>
@@ -7935,10 +7935,10 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>2</v>
@@ -7988,10 +7988,10 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>2</v>
@@ -8039,10 +8039,10 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="21" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>2</v>
@@ -8092,10 +8092,10 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="21" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>1</v>
@@ -8143,10 +8143,10 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>1</v>
@@ -8194,10 +8194,10 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>2</v>
@@ -8245,10 +8245,10 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>2</v>
@@ -8296,10 +8296,10 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>2</v>
@@ -8347,10 +8347,10 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="21" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>1</v>
@@ -8398,10 +8398,10 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>2</v>
@@ -8451,10 +8451,10 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>2</v>
@@ -8502,10 +8502,10 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="21" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>2</v>
@@ -8553,10 +8553,10 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="21" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>1</v>
@@ -8604,10 +8604,10 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>1</v>
@@ -8657,10 +8657,10 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>1</v>
@@ -8710,10 +8710,10 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>2</v>
@@ -8761,10 +8761,10 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="21" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>2</v>
@@ -8814,10 +8814,10 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="21" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>2</v>
@@ -8865,10 +8865,10 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="21" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>1</v>
@@ -8916,10 +8916,10 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>1</v>
@@ -8969,10 +8969,10 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>1</v>
@@ -9020,10 +9020,10 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>2</v>
@@ -9071,10 +9071,10 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>1</v>
@@ -9124,10 +9124,10 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>1</v>
@@ -9175,10 +9175,10 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>2</v>
@@ -9226,10 +9226,10 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="21" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>1</v>
@@ -9277,10 +9277,10 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>1</v>
@@ -9330,10 +9330,10 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>2</v>
@@ -9381,10 +9381,10 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
@@ -9432,10 +9432,10 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>2</v>
@@ -9485,10 +9485,10 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>1</v>
@@ -9536,10 +9536,10 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>1</v>
@@ -9587,10 +9587,10 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>1</v>
@@ -9640,10 +9640,10 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>2</v>
@@ -9691,10 +9691,10 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>2</v>
@@ -9744,10 +9744,10 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>1</v>
@@ -9795,10 +9795,10 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="21" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>2</v>
@@ -9846,10 +9846,10 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>1</v>
@@ -9899,10 +9899,10 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>1</v>
@@ -9950,10 +9950,10 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>2</v>
@@ -10001,10 +10001,10 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>1</v>
@@ -10054,10 +10054,10 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>1</v>
@@ -10105,10 +10105,10 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>1</v>
@@ -10156,10 +10156,10 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>2</v>
@@ -10207,10 +10207,10 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="21" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>1</v>
@@ -10258,10 +10258,10 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>2</v>
@@ -10311,10 +10311,10 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>2</v>
@@ -10362,10 +10362,10 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>2</v>
@@ -10413,10 +10413,10 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>1</v>
@@ -10466,10 +10466,10 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>2</v>
@@ -10519,10 +10519,10 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>2</v>
@@ -10570,10 +10570,10 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>1</v>
@@ -10621,10 +10621,10 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="21" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>2</v>
@@ -10672,10 +10672,10 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="21" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>2</v>
@@ -10723,10 +10723,10 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>1</v>
@@ -10774,10 +10774,10 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="21" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>2</v>
@@ -10827,10 +10827,10 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="21" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>1</v>
@@ -10878,10 +10878,10 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="21" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>1</v>
@@ -10931,10 +10931,10 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="21" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>1</v>
@@ -10982,10 +10982,10 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>2</v>
@@ -11033,10 +11033,10 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>1</v>
@@ -11084,10 +11084,10 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="21" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>1</v>
@@ -11137,10 +11137,10 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="21" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>2</v>
@@ -11188,10 +11188,10 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>2</v>
@@ -11239,10 +11239,10 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>1</v>
@@ -11290,10 +11290,10 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>2</v>
@@ -11343,10 +11343,10 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="21" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>1</v>
@@ -11396,10 +11396,10 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="21" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>1</v>
@@ -11447,10 +11447,10 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>2</v>
@@ -11498,10 +11498,10 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>1</v>
@@ -11549,10 +11549,10 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>1</v>
@@ -11602,10 +11602,10 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>2</v>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="29" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B198" s="30" t="s">
         <v>56</v>
@@ -11686,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="L198" s="8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M198" s="11">
         <v>0</v>
@@ -11704,10 +11704,10 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>2</v>
@@ -11757,7 +11757,7 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="29" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B200" s="30" t="s">
         <v>57</v>
@@ -11790,7 +11790,7 @@
         <v>1</v>
       </c>
       <c r="L200" s="8" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="M200" s="11">
         <v>0</v>
@@ -11808,10 +11808,10 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>2</v>
@@ -11861,10 +11861,10 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>2</v>
@@ -11914,10 +11914,10 @@
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>2</v>
@@ -11965,7 +11965,7 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="29" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B204" s="30" t="s">
         <v>53</v>
@@ -11998,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="L204" s="8" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M204" s="11">
         <v>0</v>
@@ -12016,7 +12016,7 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="31" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B205" s="32" t="s">
         <v>54</v>
@@ -12049,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="L205" s="34" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M205" s="40">
         <v>0</v>
@@ -12067,7 +12067,7 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="29" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B206" s="30" t="s">
         <v>57</v>
@@ -12100,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="L206" s="8" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="M206" s="9">
         <v>0</v>
@@ -12118,10 +12118,10 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="21" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>1</v>
@@ -12171,10 +12171,10 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="21" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>1</v>
@@ -12222,10 +12222,10 @@
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>2</v>
@@ -12273,10 +12273,10 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>1</v>
@@ -12326,10 +12326,10 @@
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>1</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="29" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B212" s="30" t="s">
         <v>56</v>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="L212" s="8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M212" s="6">
         <v>0</v>
@@ -12428,10 +12428,10 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="21" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>1</v>
@@ -12479,10 +12479,10 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="21" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>1</v>
@@ -12532,10 +12532,10 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="21" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>2</v>
@@ -12583,10 +12583,10 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="21" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>2</v>
@@ -12636,10 +12636,10 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>2</v>
@@ -12689,10 +12689,10 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>1</v>
@@ -12740,10 +12740,10 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>1</v>
@@ -12791,10 +12791,10 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>2</v>
@@ -12842,10 +12842,10 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="21" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>1</v>
@@ -12893,10 +12893,10 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>2</v>
@@ -12946,10 +12946,10 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>2</v>
@@ -12997,10 +12997,10 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>1</v>
@@ -13050,10 +13050,10 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="21" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>2</v>
@@ -13103,10 +13103,10 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="21" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>2</v>
@@ -13154,10 +13154,10 @@
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>1</v>
@@ -13205,10 +13205,10 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="21" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>2</v>
@@ -13256,10 +13256,10 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>2</v>
@@ -13307,10 +13307,10 @@
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>1</v>
@@ -13358,10 +13358,10 @@
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="21" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>2</v>
@@ -13411,10 +13411,10 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>2</v>
@@ -13462,10 +13462,10 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>2</v>
@@ -13513,10 +13513,10 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="21" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>1</v>
@@ -13564,10 +13564,10 @@
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>2</v>
@@ -13617,10 +13617,10 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>2</v>
@@ -13668,10 +13668,10 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>2</v>
@@ -13719,10 +13719,10 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>1</v>
@@ -13770,10 +13770,10 @@
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>1</v>
@@ -13823,10 +13823,10 @@
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>1</v>
@@ -13876,10 +13876,10 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>2</v>
@@ -13927,10 +13927,10 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>2</v>
@@ -13980,10 +13980,10 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>1</v>
@@ -14031,10 +14031,10 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="21" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>2</v>
@@ -14082,10 +14082,10 @@
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>1</v>
@@ -14133,10 +14133,10 @@
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="21" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>2</v>
@@ -14184,10 +14184,10 @@
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="21" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>1</v>
@@ -14237,10 +14237,10 @@
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="21" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>1</v>
@@ -14288,10 +14288,10 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>2</v>
@@ -14339,10 +14339,10 @@
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="21" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>1</v>
@@ -14392,10 +14392,10 @@
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="21" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>1</v>
@@ -14443,10 +14443,10 @@
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>2</v>
@@ -14494,10 +14494,10 @@
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>1</v>
@@ -14545,10 +14545,10 @@
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>1</v>
@@ -14596,10 +14596,10 @@
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>2</v>
@@ -14647,7 +14647,7 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="31" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B256" s="32" t="s">
         <v>54</v>
@@ -14680,7 +14680,7 @@
         <v>1</v>
       </c>
       <c r="L256" s="34" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M256" s="40">
         <v>0</v>
@@ -14698,10 +14698,10 @@
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>2</v>
@@ -14749,10 +14749,10 @@
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C258" s="11" t="s">
         <v>2</v>
@@ -14802,10 +14802,10 @@
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>1</v>
@@ -14853,10 +14853,10 @@
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>1</v>
@@ -14904,10 +14904,10 @@
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>1</v>
@@ -14957,10 +14957,10 @@
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C262" s="11" t="s">
         <v>2</v>
@@ -15008,7 +15008,7 @@
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="29" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B263" s="30" t="s">
         <v>53</v>
@@ -15041,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="L263" s="8" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M263" s="6">
         <v>0</v>
@@ -15059,10 +15059,10 @@
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C264" s="11" t="s">
         <v>2</v>
@@ -15110,10 +15110,10 @@
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>1</v>
@@ -15161,10 +15161,10 @@
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C266" s="11" t="s">
         <v>2</v>
@@ -15212,10 +15212,10 @@
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>1</v>
@@ -15265,10 +15265,10 @@
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>1</v>
@@ -15316,10 +15316,10 @@
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>1</v>
@@ -15367,10 +15367,10 @@
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C270" s="11" t="s">
         <v>2</v>
@@ -15418,10 +15418,10 @@
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>1</v>
@@ -15471,10 +15471,10 @@
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C272" s="11" t="s">
         <v>1</v>
@@ -15522,10 +15522,10 @@
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>1</v>
@@ -15573,10 +15573,10 @@
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C274" s="11" t="s">
         <v>2</v>
@@ -15624,10 +15624,10 @@
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="21" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>1</v>
@@ -15675,7 +15675,7 @@
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="29" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B276" s="30" t="s">
         <v>55</v>
@@ -15708,7 +15708,7 @@
         <v>1</v>
       </c>
       <c r="L276" s="14" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M276" s="11">
         <v>0</v>
@@ -15726,10 +15726,10 @@
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>2</v>
@@ -15779,10 +15779,10 @@
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C278" s="11" t="s">
         <v>2</v>
@@ -15830,10 +15830,10 @@
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="21" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>1</v>
@@ -15881,10 +15881,10 @@
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>2</v>
@@ -15934,10 +15934,10 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>2</v>
@@ -15985,10 +15985,10 @@
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C282" s="11" t="s">
         <v>2</v>
@@ -16038,10 +16038,10 @@
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>1</v>
@@ -16089,10 +16089,10 @@
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>2</v>
@@ -16142,10 +16142,10 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>2</v>
@@ -16193,10 +16193,10 @@
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="21" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>2</v>
@@ -16246,10 +16246,10 @@
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="21" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>1</v>
@@ -16297,10 +16297,10 @@
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>2</v>
@@ -16348,10 +16348,10 @@
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="21" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>1</v>
@@ -16401,10 +16401,10 @@
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="21" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>1</v>
@@ -16452,10 +16452,10 @@
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="21" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>1</v>
@@ -16503,10 +16503,10 @@
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="21" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>2</v>
@@ -16554,10 +16554,10 @@
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>1</v>
@@ -16605,10 +16605,10 @@
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C294" s="11" t="s">
         <v>2</v>
@@ -16658,10 +16658,10 @@
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C295" s="6" t="s">
         <v>1</v>
@@ -16709,10 +16709,10 @@
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C296" s="11" t="s">
         <v>2</v>
@@ -16760,10 +16760,10 @@
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>1</v>
@@ -16811,10 +16811,10 @@
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C298" s="11" t="s">
         <v>1</v>
@@ -16864,10 +16864,10 @@
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>1</v>
@@ -16915,10 +16915,10 @@
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C300" s="11" t="s">
         <v>2</v>
@@ -16966,10 +16966,10 @@
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>1</v>
@@ -17019,10 +17019,10 @@
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="21" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C302" s="11" t="s">
         <v>1</v>
@@ -17072,10 +17072,10 @@
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="21" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>2</v>
@@ -17123,10 +17123,10 @@
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="21" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C304" s="11" t="s">
         <v>2</v>
@@ -17174,10 +17174,10 @@
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="21" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>2</v>
@@ -17225,7 +17225,7 @@
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="29" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B306" s="30" t="s">
         <v>52</v>
@@ -17258,7 +17258,7 @@
         <v>1</v>
       </c>
       <c r="L306" s="14" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M306" s="11">
         <v>0</v>
@@ -17276,10 +17276,10 @@
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="22" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B307" s="23" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>2</v>
@@ -17327,7 +17327,7 @@
     </row>
     <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="29" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B308" s="30" t="s">
         <v>52</v>
@@ -17360,7 +17360,7 @@
         <v>1</v>
       </c>
       <c r="L308" s="14" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="M308" s="15">
         <v>0</v>
@@ -17378,7 +17378,7 @@
     </row>
     <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="29" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B309" s="30" t="s">
         <v>53</v>
@@ -17411,7 +17411,7 @@
         <v>1</v>
       </c>
       <c r="L309" s="8" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="M309" s="6">
         <v>0</v>
@@ -17429,10 +17429,10 @@
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>1</v>
@@ -17482,10 +17482,10 @@
     </row>
     <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>1</v>
@@ -17533,10 +17533,10 @@
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>2</v>
@@ -17584,10 +17584,10 @@
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>1</v>
@@ -17637,10 +17637,10 @@
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>1</v>
@@ -17688,10 +17688,10 @@
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="21" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>2</v>
@@ -17741,10 +17741,10 @@
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>1</v>
@@ -17792,10 +17792,10 @@
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>2</v>
@@ -17843,10 +17843,10 @@
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="21" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>1</v>
@@ -17894,10 +17894,10 @@
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="21" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>2</v>
@@ -17947,10 +17947,10 @@
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="21" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C320" s="11" t="s">
         <v>1</v>
@@ -17998,10 +17998,10 @@
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>1</v>
@@ -18049,10 +18049,10 @@
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="21" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C322" s="11" t="s">
         <v>1</v>
@@ -18100,10 +18100,10 @@
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="21" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>2</v>
@@ -18151,10 +18151,10 @@
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="21" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>2</v>
@@ -18204,10 +18204,10 @@
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="21" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>2</v>
@@ -18255,10 +18255,10 @@
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="21" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>1</v>
@@ -18306,10 +18306,10 @@
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>2</v>
@@ -18357,10 +18357,10 @@
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>2</v>
@@ -18410,10 +18410,10 @@
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>2</v>
@@ -18461,10 +18461,10 @@
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="21" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>1</v>
@@ -18514,10 +18514,10 @@
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="21" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>2</v>
@@ -18567,10 +18567,10 @@
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C332" s="11" t="s">
         <v>2</v>
@@ -18620,10 +18620,10 @@
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>1</v>
@@ -18671,10 +18671,10 @@
     </row>
     <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="21" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>1</v>
@@ -18722,10 +18722,10 @@
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C335" s="6" t="s">
         <v>2</v>
@@ -18775,10 +18775,10 @@
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>2</v>
@@ -18826,10 +18826,10 @@
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>1</v>
@@ -18877,10 +18877,10 @@
     </row>
     <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C338" s="11" t="s">
         <v>2</v>
@@ -18930,10 +18930,10 @@
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>2</v>
@@ -18981,10 +18981,10 @@
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="21" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C340" s="11" t="s">
         <v>1</v>
@@ -19032,10 +19032,10 @@
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>2</v>
@@ -19083,10 +19083,10 @@
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>1</v>
@@ -19134,10 +19134,10 @@
     </row>
     <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="21" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>1</v>
@@ -19187,10 +19187,10 @@
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="21" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>2</v>
@@ -19238,10 +19238,10 @@
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="21" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>2</v>
@@ -19289,10 +19289,10 @@
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>2</v>
@@ -19342,10 +19342,10 @@
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>1</v>
@@ -19393,10 +19393,10 @@
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>2</v>
@@ -19444,10 +19444,10 @@
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="21" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>1</v>
@@ -19497,10 +19497,10 @@
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>1</v>
@@ -19550,10 +19550,10 @@
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>1</v>
@@ -19601,10 +19601,10 @@
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="21" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>2</v>
@@ -19652,10 +19652,10 @@
     </row>
     <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>1</v>
@@ -19705,10 +19705,10 @@
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>1</v>
@@ -19756,7 +19756,7 @@
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="29" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B355" s="30" t="s">
         <v>54</v>
@@ -19789,7 +19789,7 @@
         <v>1</v>
       </c>
       <c r="L355" s="8" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="M355" s="6">
         <v>0</v>
@@ -19807,10 +19807,10 @@
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>1</v>
@@ -19858,10 +19858,10 @@
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="21" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>1</v>
@@ -19911,10 +19911,10 @@
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="22" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B358" s="23" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C358" s="18" t="s">
         <v>2</v>
@@ -19962,10 +19962,10 @@
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>2</v>
@@ -20013,10 +20013,10 @@
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>1</v>
@@ -20064,7 +20064,7 @@
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="29" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B361" s="30" t="s">
         <v>55</v>
@@ -20097,7 +20097,7 @@
         <v>1</v>
       </c>
       <c r="L361" s="8" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="M361" s="6">
         <v>0</v>
@@ -20115,10 +20115,10 @@
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>1</v>
@@ -20168,10 +20168,10 @@
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>2</v>
@@ -20219,10 +20219,10 @@
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>2</v>
@@ -20272,10 +20272,10 @@
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C365" s="6" t="s">
         <v>2</v>
@@ -20325,10 +20325,10 @@
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>1</v>
@@ -20376,10 +20376,10 @@
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="21" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>1</v>
@@ -20427,10 +20427,10 @@
     </row>
     <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="21" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>2</v>
@@ -20478,10 +20478,10 @@
     </row>
     <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>1</v>
@@ -20531,10 +20531,10 @@
     </row>
     <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>1</v>
@@ -20582,10 +20582,10 @@
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>2</v>
@@ -20633,10 +20633,10 @@
     </row>
     <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="21" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>1</v>
@@ -20686,10 +20686,10 @@
     </row>
     <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>1</v>
@@ -20739,10 +20739,10 @@
     </row>
     <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>1</v>
@@ -20790,7 +20790,7 @@
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="29" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B375" s="30" t="s">
         <v>56</v>
@@ -20823,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="L375" s="8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M375" s="6">
         <v>0</v>
@@ -20841,10 +20841,10 @@
     </row>
     <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>1</v>
@@ -20892,10 +20892,10 @@
     </row>
     <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>2</v>
@@ -20943,10 +20943,10 @@
     </row>
     <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>1</v>
@@ -20994,10 +20994,10 @@
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>2</v>
@@ -21047,10 +21047,10 @@
     </row>
     <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C380" s="11" t="s">
         <v>2</v>
@@ -21098,10 +21098,10 @@
     </row>
     <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="21" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>1</v>
@@ -21149,10 +21149,10 @@
     </row>
     <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="21" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C382" s="11" t="s">
         <v>2</v>
@@ -21202,10 +21202,10 @@
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>2</v>
@@ -21255,10 +21255,10 @@
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C384" s="11" t="s">
         <v>2</v>
@@ -21306,10 +21306,10 @@
     </row>
     <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>1</v>
@@ -21357,10 +21357,10 @@
     </row>
     <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C386" s="11" t="s">
         <v>2</v>
@@ -21410,10 +21410,10 @@
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="21" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>2</v>
@@ -21461,10 +21461,10 @@
     </row>
     <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="21" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C388" s="11" t="s">
         <v>2</v>
@@ -21512,10 +21512,10 @@
     </row>
     <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="21" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>1</v>
@@ -21563,10 +21563,10 @@
     </row>
     <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C390" s="11" t="s">
         <v>1</v>
@@ -21616,10 +21616,10 @@
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>2</v>
@@ -21667,10 +21667,10 @@
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B392" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C392" s="11" t="s">
         <v>1</v>
@@ -21720,10 +21720,10 @@
     </row>
     <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>1</v>
@@ -21771,10 +21771,10 @@
     </row>
     <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="21" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C394" s="11" t="s">
         <v>1</v>
@@ -21824,10 +21824,10 @@
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="21" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C395" s="6" t="s">
         <v>2</v>
@@ -21875,10 +21875,10 @@
     </row>
     <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="21" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C396" s="11" t="s">
         <v>1</v>
@@ -21926,10 +21926,10 @@
     </row>
     <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C397" s="6" t="s">
         <v>2</v>
@@ -21977,10 +21977,10 @@
     </row>
     <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="21" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C398" s="11" t="s">
         <v>2</v>
@@ -22030,10 +22030,10 @@
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="21" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>1</v>
@@ -22081,10 +22081,10 @@
     </row>
     <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="21" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C400" s="11" t="s">
         <v>1</v>
@@ -22132,10 +22132,10 @@
     </row>
     <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" s="21" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C401" s="6" t="s">
         <v>1</v>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" s="29" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B402" s="30" t="s">
         <v>57</v>
@@ -22216,7 +22216,7 @@
         <v>1</v>
       </c>
       <c r="L402" s="8" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="M402" s="11">
         <v>0</v>
@@ -22234,10 +22234,10 @@
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" s="21" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>1</v>
@@ -22285,10 +22285,10 @@
     </row>
     <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" s="21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C404" s="11" t="s">
         <v>1</v>
@@ -22336,10 +22336,10 @@
     </row>
     <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" s="21" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>2</v>
@@ -22387,10 +22387,10 @@
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" s="21" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C406" s="11" t="s">
         <v>2</v>
@@ -22438,10 +22438,10 @@
     </row>
     <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" s="21" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>2</v>
@@ -22489,10 +22489,10 @@
     </row>
     <row r="408" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A408" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C408" s="11" t="s">
         <v>1</v>
@@ -22540,10 +22540,10 @@
     </row>
     <row r="409" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A409" s="21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C409" s="6" t="s">
         <v>2</v>
